--- a/Inflación Argentina.xlsx
+++ b/Inflación Argentina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan David\Documents\Python\Bootcamp_project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AF0018-420A-4E61-BEE1-91AD746BA893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A24F6C-480C-4522-8EBE-0109106E2164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{C8D208D0-6EC1-416C-9BC4-E29CA87F496F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Total nacional</t>
   </si>
@@ -83,48 +83,6 @@
   </si>
   <si>
     <t>Bienes y servicios varios</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Mes</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
-  </si>
-  <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
   </si>
   <si>
     <t>nivel_general_mensual</t>
@@ -203,6 +161,12 @@
   </si>
   <si>
     <t>alimentos_bebidas_anual</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>Año_mes</t>
   </si>
 </sst>
 </file>
@@ -324,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -354,11 +318,44 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -811,32 +808,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1125,25 +1096,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1174,48 +1126,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{327B17F0-3B68-47B4-AD7E-A5B7D7AE5A7D}" name="Tabla1" displayName="Tabla1" ref="A1:O62" totalsRowShown="0" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{327B17F0-3B68-47B4-AD7E-A5B7D7AE5A7D}" name="Tabla1" displayName="Tabla1" ref="A1:O62" totalsRowShown="0" dataDxfId="31">
   <autoFilter ref="A1:O62" xr:uid="{327B17F0-3B68-47B4-AD7E-A5B7D7AE5A7D}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{83925FBB-826C-4A32-8942-77F19F1C40EC}" name="Año"/>
-    <tableColumn id="2" xr3:uid="{B2F170C0-B427-49C3-BD6B-DDBB4F7F95EA}" name="Mes"/>
-    <tableColumn id="3" xr3:uid="{C89CAD05-56E3-4869-BFAE-ACDCE9460FFB}" name="nivel_general_mensual" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{C19310AA-4BAE-48A0-BB6E-AE5144AAD943}" name="alimentos_bebidas_no_alc_mensual" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{6001B170-3776-426E-B08A-9952659913A0}" name="alcohol_tabaco_mensual" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{52B6985E-8828-4428-B2E4-D1B230FCF75D}" name="vestimenta_mensual" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{E6AD93C7-5F4B-488C-B7B0-D15279DBAF09}" name="vivienda_mensual" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{89839B7E-A1FE-4B52-8F52-6B0DD3386983}" name="hogar_mensual" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{20C80C39-F62F-442A-B41D-96609A9D08AD}" name="salud_mensual" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{810AAA44-04CA-4799-A7B7-7A49A67A6B3C}" name="transporte_mensual" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{9E19D746-28C2-49E3-BB4E-53CA1917A1D1}" name="comunicación_mensual" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{C777914F-3E49-493F-9C09-A32875C72C85}" name="recreacion_mensual" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{9291CDC0-545B-44AA-A316-150C5770CBD0}" name="educacion_mensual" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{77E9CBC2-DE18-4A75-B58E-5E597B472363}" name="restaurantes_hoteles_mensual" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{1A1D65EE-D446-4B25-A63D-FA28A870483E}" name="bienes_servicios_varios_mensual" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{83925FBB-826C-4A32-8942-77F19F1C40EC}" name="Periodo"/>
+    <tableColumn id="2" xr3:uid="{BBD96942-717F-4EA8-B070-FCD879BEA491}" name="Año_mes" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C89CAD05-56E3-4869-BFAE-ACDCE9460FFB}" name="nivel_general_mensual" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C19310AA-4BAE-48A0-BB6E-AE5144AAD943}" name="alimentos_bebidas_no_alc_mensual" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{6001B170-3776-426E-B08A-9952659913A0}" name="alcohol_tabaco_mensual" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{52B6985E-8828-4428-B2E4-D1B230FCF75D}" name="vestimenta_mensual" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{E6AD93C7-5F4B-488C-B7B0-D15279DBAF09}" name="vivienda_mensual" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{89839B7E-A1FE-4B52-8F52-6B0DD3386983}" name="hogar_mensual" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{20C80C39-F62F-442A-B41D-96609A9D08AD}" name="salud_mensual" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{810AAA44-04CA-4799-A7B7-7A49A67A6B3C}" name="transporte_mensual" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{9E19D746-28C2-49E3-BB4E-53CA1917A1D1}" name="comunicación_mensual" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{C777914F-3E49-493F-9C09-A32875C72C85}" name="recreacion_mensual" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{9291CDC0-545B-44AA-A316-150C5770CBD0}" name="educacion_mensual" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{77E9CBC2-DE18-4A75-B58E-5E597B472363}" name="restaurantes_hoteles_mensual" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{1A1D65EE-D446-4B25-A63D-FA28A870483E}" name="bienes_servicios_varios_mensual" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23D9E28E-76EB-4555-B522-E67C47B5C7AF}" name="Tabla13" displayName="Tabla13" ref="A1:O51" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23D9E28E-76EB-4555-B522-E67C47B5C7AF}" name="Tabla13" displayName="Tabla13" ref="A1:O51" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:O51" xr:uid="{23D9E28E-76EB-4555-B522-E67C47B5C7AF}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{A2F6D469-58D3-4FCC-B7F9-96BF31A78446}" name="Año" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{7C4B545C-62BE-4439-880E-F5BB0149490B}" name="Mes" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4B342705-8FAA-409E-AF65-7251B4FC30CB}" name="nivel_general_anual" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C5D989B1-0724-4733-9F54-BA49A9217D78}" name="alimentos_bebidas_anual" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{C1AC7865-11A6-4013-B5C7-56FC9BF1506F}" name="alcohol_tabaco_anual" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{5C7A97E7-1164-4581-AFD6-9FDE0F75E14A}" name="vestimenta_anual" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{4866A1AC-8FCB-498E-90C9-82196447B03A}" name="servicios_vivienda_anual" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00196887-5077-4500-8B09-2878A4F272CA}" name="hogar_anual" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{02564D70-4555-46BB-B068-484E99A564AA}" name="salud_anual" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{CF0D8AC9-FF19-4926-80FB-382BC56AD75B}" name="transporte_anual" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{DCE1648C-348E-4F8E-BF93-FD6E8D5538DF}" name="comunicacion_anual" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{23D53996-55D4-4543-8DE5-3F75DA6CE391}" name="recreacion_anual" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{AE6B4B4A-516C-4D25-8219-89A201941D3A}" name="educacion_anual" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{3AEC566F-CAB9-4D18-ABC5-63357B73E334}" name="restaurantes_hoteles_anual" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{4E09C514-72E0-475D-9DA1-7F9C2B9A778A}" name="bienes_servicios_varios_anual" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A2F6D469-58D3-4FCC-B7F9-96BF31A78446}" name="Periodo" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{B37586D7-375A-477B-B72B-DABA2FB2A651}" name="Año_mes" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4B342705-8FAA-409E-AF65-7251B4FC30CB}" name="nivel_general_anual" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{C5D989B1-0724-4733-9F54-BA49A9217D78}" name="alimentos_bebidas_anual" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{C1AC7865-11A6-4013-B5C7-56FC9BF1506F}" name="alcohol_tabaco_anual" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{5C7A97E7-1164-4581-AFD6-9FDE0F75E14A}" name="vestimenta_anual" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{4866A1AC-8FCB-498E-90C9-82196447B03A}" name="servicios_vivienda_anual" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00196887-5077-4500-8B09-2878A4F272CA}" name="hogar_anual" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{02564D70-4555-46BB-B068-484E99A564AA}" name="salud_anual" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{CF0D8AC9-FF19-4926-80FB-382BC56AD75B}" name="transporte_anual" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{DCE1648C-348E-4F8E-BF93-FD6E8D5538DF}" name="comunicacion_anual" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{23D53996-55D4-4543-8DE5-3F75DA6CE391}" name="recreacion_anual" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{AE6B4B4A-516C-4D25-8219-89A201941D3A}" name="educacion_anual" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{3AEC566F-CAB9-4D18-ABC5-63357B73E334}" name="restaurantes_hoteles_anual" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{4E09C514-72E0-475D-9DA1-7F9C2B9A778A}" name="bienes_servicios_varios_anual" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4367,8 +4319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49C58EA-E2AB-4BFC-B6CD-42A8B2150D88}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4387,57 +4339,57 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2017</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
+      <c r="A2" s="15">
+        <v>42736</v>
+      </c>
+      <c r="B2" s="16">
+        <v>2017.01</v>
       </c>
       <c r="C2" s="8">
         <v>1.6</v>
@@ -4480,11 +4432,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2017</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+      <c r="A3" s="15">
+        <v>42767</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2017.02</v>
       </c>
       <c r="C3" s="8">
         <v>2.1</v>
@@ -4527,11 +4479,11 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="A4" s="15">
+        <v>42795</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2017.03</v>
       </c>
       <c r="C4" s="8">
         <v>2.4</v>
@@ -4574,11 +4526,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2017</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
+      <c r="A5" s="15">
+        <v>42826</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2017.04</v>
       </c>
       <c r="C5" s="8">
         <v>2.7</v>
@@ -4621,11 +4573,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2017</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
+      <c r="A6" s="15">
+        <v>42856</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2017.05</v>
       </c>
       <c r="C6" s="8">
         <v>1.4</v>
@@ -4668,11 +4620,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
+      <c r="A7" s="15">
+        <v>42887</v>
+      </c>
+      <c r="B7" s="16">
+        <v>2017.06</v>
       </c>
       <c r="C7" s="8">
         <v>1.2</v>
@@ -4715,11 +4667,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2017</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
+      <c r="A8" s="15">
+        <v>42917</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2017.07</v>
       </c>
       <c r="C8" s="8">
         <v>1.7</v>
@@ -4762,11 +4714,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
+      <c r="A9" s="15">
+        <v>42948</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2017.08</v>
       </c>
       <c r="C9" s="8">
         <v>1.4</v>
@@ -4809,11 +4761,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2017</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
+      <c r="A10" s="15">
+        <v>42979</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2017.09</v>
       </c>
       <c r="C10" s="8">
         <v>1.9</v>
@@ -4856,11 +4808,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2017</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
+      <c r="A11" s="15">
+        <v>43009</v>
+      </c>
+      <c r="B11" s="16">
+        <v>2017.1</v>
       </c>
       <c r="C11" s="8">
         <v>1.5</v>
@@ -4903,11 +4855,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2017</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
+      <c r="A12" s="15">
+        <v>43040</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2017.11</v>
       </c>
       <c r="C12" s="8">
         <v>1.4</v>
@@ -4950,11 +4902,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2017</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
+      <c r="A13" s="15">
+        <v>43070</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2017.12</v>
       </c>
       <c r="C13" s="8">
         <v>3.1</v>
@@ -4997,11 +4949,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2018</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
+      <c r="A14" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B14" s="16">
+        <v>2018.01</v>
       </c>
       <c r="C14" s="8">
         <v>1.8</v>
@@ -5044,11 +4996,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
+      <c r="A15" s="15">
+        <v>43132</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2018.02</v>
       </c>
       <c r="C15" s="8">
         <v>2.4</v>
@@ -5091,11 +5043,11 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2018</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
+      <c r="A16" s="15">
+        <v>43160</v>
+      </c>
+      <c r="B16" s="16">
+        <v>2018.03</v>
       </c>
       <c r="C16" s="8">
         <v>2.2999999999999998</v>
@@ -5138,11 +5090,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2018</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
+      <c r="A17" s="15">
+        <v>43191</v>
+      </c>
+      <c r="B17" s="16">
+        <v>2018.04</v>
       </c>
       <c r="C17" s="8">
         <v>2.7</v>
@@ -5185,11 +5137,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2018</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
+      <c r="A18" s="15">
+        <v>43221</v>
+      </c>
+      <c r="B18" s="16">
+        <v>2018.05</v>
       </c>
       <c r="C18" s="8">
         <v>2.1</v>
@@ -5232,11 +5184,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2018</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
+      <c r="A19" s="15">
+        <v>43252</v>
+      </c>
+      <c r="B19" s="16">
+        <v>2018.06</v>
       </c>
       <c r="C19" s="8">
         <v>3.7</v>
@@ -5279,11 +5231,11 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2018</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
+      <c r="A20" s="15">
+        <v>43282</v>
+      </c>
+      <c r="B20" s="16">
+        <v>2018.07</v>
       </c>
       <c r="C20" s="8">
         <v>3.1</v>
@@ -5326,11 +5278,11 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
+      <c r="A21" s="15">
+        <v>43313</v>
+      </c>
+      <c r="B21" s="16">
+        <v>2018.08</v>
       </c>
       <c r="C21" s="8">
         <v>3.9</v>
@@ -5373,11 +5325,11 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2018</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
+      <c r="A22" s="15">
+        <v>43344</v>
+      </c>
+      <c r="B22" s="16">
+        <v>2018.09</v>
       </c>
       <c r="C22" s="8">
         <v>6.5</v>
@@ -5420,11 +5372,11 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2018</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
+      <c r="A23" s="15">
+        <v>43374</v>
+      </c>
+      <c r="B23" s="16">
+        <v>2018.1</v>
       </c>
       <c r="C23" s="8">
         <v>5.4</v>
@@ -5467,11 +5419,11 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2018</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
+      <c r="A24" s="15">
+        <v>43405</v>
+      </c>
+      <c r="B24" s="16">
+        <v>2018.11</v>
       </c>
       <c r="C24" s="8">
         <v>3.2</v>
@@ -5514,11 +5466,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2018</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
+      <c r="A25" s="15">
+        <v>43435</v>
+      </c>
+      <c r="B25" s="16">
+        <v>2018.12</v>
       </c>
       <c r="C25" s="8">
         <v>2.6</v>
@@ -5561,11 +5513,11 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2019</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
+      <c r="A26" s="15">
+        <v>43466</v>
+      </c>
+      <c r="B26" s="16">
+        <v>2019.01</v>
       </c>
       <c r="C26" s="8">
         <v>2.9</v>
@@ -5608,11 +5560,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>2019</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
+      <c r="A27" s="15">
+        <v>43497</v>
+      </c>
+      <c r="B27" s="16">
+        <v>2019.02</v>
       </c>
       <c r="C27" s="8">
         <v>3.8</v>
@@ -5655,11 +5607,11 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>2019</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
+      <c r="A28" s="15">
+        <v>43525</v>
+      </c>
+      <c r="B28" s="16">
+        <v>2019.03</v>
       </c>
       <c r="C28" s="8">
         <v>4.7</v>
@@ -5702,11 +5654,11 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>2019</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
+      <c r="A29" s="15">
+        <v>43556</v>
+      </c>
+      <c r="B29" s="16">
+        <v>2019.04</v>
       </c>
       <c r="C29" s="8">
         <v>3.4</v>
@@ -5749,11 +5701,11 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>2019</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
+      <c r="A30" s="15">
+        <v>43586</v>
+      </c>
+      <c r="B30" s="16">
+        <v>2019.05</v>
       </c>
       <c r="C30" s="8">
         <v>3.1</v>
@@ -5796,11 +5748,11 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>2019</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
+      <c r="A31" s="15">
+        <v>43617</v>
+      </c>
+      <c r="B31" s="16">
+        <v>2019.06</v>
       </c>
       <c r="C31" s="8">
         <v>2.7</v>
@@ -5843,11 +5795,11 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>2019</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
+      <c r="A32" s="15">
+        <v>43647</v>
+      </c>
+      <c r="B32" s="16">
+        <v>2019.07</v>
       </c>
       <c r="C32" s="8">
         <v>2.2000000000000002</v>
@@ -5890,11 +5842,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
+      <c r="A33" s="15">
+        <v>43678</v>
+      </c>
+      <c r="B33" s="16">
+        <v>2019.08</v>
       </c>
       <c r="C33" s="8">
         <v>4</v>
@@ -5937,11 +5889,11 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>2019</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
+      <c r="A34" s="15">
+        <v>43709</v>
+      </c>
+      <c r="B34" s="16">
+        <v>2019.09</v>
       </c>
       <c r="C34" s="8">
         <v>5.9</v>
@@ -5984,11 +5936,11 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>2019</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
+      <c r="A35" s="15">
+        <v>43739</v>
+      </c>
+      <c r="B35" s="16">
+        <v>2019.1</v>
       </c>
       <c r="C35" s="8">
         <v>3.3</v>
@@ -6031,11 +5983,11 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>2019</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
+      <c r="A36" s="15">
+        <v>43770</v>
+      </c>
+      <c r="B36" s="16">
+        <v>2019.11</v>
       </c>
       <c r="C36" s="8">
         <v>4.3</v>
@@ -6078,11 +6030,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>2019</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
+      <c r="A37" s="15">
+        <v>43800</v>
+      </c>
+      <c r="B37" s="16">
+        <v>2019.12</v>
       </c>
       <c r="C37" s="8">
         <v>3.7</v>
@@ -6125,11 +6077,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>2020</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
+      <c r="A38" s="15">
+        <v>43831</v>
+      </c>
+      <c r="B38" s="16">
+        <v>2020.01</v>
       </c>
       <c r="C38" s="8">
         <v>2.2999999999999998</v>
@@ -6172,11 +6124,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>2020</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
+      <c r="A39" s="15">
+        <v>43862</v>
+      </c>
+      <c r="B39" s="16">
+        <v>2020.02</v>
       </c>
       <c r="C39" s="8">
         <v>2</v>
@@ -6219,11 +6171,11 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>2020</v>
-      </c>
-      <c r="B40" t="s">
-        <v>21</v>
+      <c r="A40" s="15">
+        <v>43891</v>
+      </c>
+      <c r="B40" s="16">
+        <v>2020.03</v>
       </c>
       <c r="C40" s="8">
         <v>3.3</v>
@@ -6266,11 +6218,11 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>2020</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
+      <c r="A41" s="15">
+        <v>43922</v>
+      </c>
+      <c r="B41" s="16">
+        <v>2020.04</v>
       </c>
       <c r="C41" s="8">
         <v>1.5</v>
@@ -6313,11 +6265,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>2020</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
+      <c r="A42" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B42" s="16">
+        <v>2020.05</v>
       </c>
       <c r="C42" s="8">
         <v>1.5</v>
@@ -6360,11 +6312,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>2020</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
+      <c r="A43" s="15">
+        <v>43983</v>
+      </c>
+      <c r="B43" s="16">
+        <v>2020.06</v>
       </c>
       <c r="C43" s="8">
         <v>2.2000000000000002</v>
@@ -6407,11 +6359,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>2020</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
+      <c r="A44" s="15">
+        <v>44013</v>
+      </c>
+      <c r="B44" s="16">
+        <v>2020.07</v>
       </c>
       <c r="C44" s="8">
         <v>1.9</v>
@@ -6454,11 +6406,11 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>2020</v>
-      </c>
-      <c r="B45" t="s">
-        <v>26</v>
+      <c r="A45" s="15">
+        <v>44044</v>
+      </c>
+      <c r="B45" s="16">
+        <v>2020.08</v>
       </c>
       <c r="C45" s="8">
         <v>2.7</v>
@@ -6501,11 +6453,11 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2020</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
+      <c r="A46" s="15">
+        <v>44075</v>
+      </c>
+      <c r="B46" s="16">
+        <v>2020.09</v>
       </c>
       <c r="C46" s="8">
         <v>2.8</v>
@@ -6548,11 +6500,11 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>2020</v>
-      </c>
-      <c r="B47" t="s">
-        <v>28</v>
+      <c r="A47" s="15">
+        <v>44105</v>
+      </c>
+      <c r="B47" s="16">
+        <v>2020.1</v>
       </c>
       <c r="C47" s="8">
         <v>3.8</v>
@@ -6595,11 +6547,11 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>2020</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
+      <c r="A48" s="15">
+        <v>44136</v>
+      </c>
+      <c r="B48" s="16">
+        <v>2020.11</v>
       </c>
       <c r="C48" s="8">
         <v>3.2</v>
@@ -6642,11 +6594,11 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>2020</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
+      <c r="A49" s="15">
+        <v>44166</v>
+      </c>
+      <c r="B49" s="16">
+        <v>2020.12</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
@@ -6689,11 +6641,11 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>2021</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
+      <c r="A50" s="15">
+        <v>44197</v>
+      </c>
+      <c r="B50" s="16">
+        <v>2021.01</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
@@ -6736,11 +6688,11 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>2021</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
+      <c r="A51" s="15">
+        <v>44228</v>
+      </c>
+      <c r="B51" s="16">
+        <v>2021.02</v>
       </c>
       <c r="C51" s="8">
         <v>3.6</v>
@@ -6783,11 +6735,11 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>2021</v>
-      </c>
-      <c r="B52" t="s">
-        <v>21</v>
+      <c r="A52" s="15">
+        <v>44256</v>
+      </c>
+      <c r="B52" s="16">
+        <v>2021.03</v>
       </c>
       <c r="C52" s="8">
         <v>4.8</v>
@@ -6830,11 +6782,11 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>2021</v>
-      </c>
-      <c r="B53" t="s">
-        <v>22</v>
+      <c r="A53" s="15">
+        <v>44287</v>
+      </c>
+      <c r="B53" s="16">
+        <v>2021.04</v>
       </c>
       <c r="C53" s="8">
         <v>4.0999999999999996</v>
@@ -6877,11 +6829,11 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>2021</v>
-      </c>
-      <c r="B54" t="s">
-        <v>23</v>
+      <c r="A54" s="15">
+        <v>44317</v>
+      </c>
+      <c r="B54" s="16">
+        <v>2021.05</v>
       </c>
       <c r="C54" s="8">
         <v>3.3</v>
@@ -6924,11 +6876,11 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>2021</v>
-      </c>
-      <c r="B55" t="s">
-        <v>24</v>
+      <c r="A55" s="15">
+        <v>44348</v>
+      </c>
+      <c r="B55" s="16">
+        <v>2021.06</v>
       </c>
       <c r="C55" s="8">
         <v>3.2</v>
@@ -6971,11 +6923,11 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>2021</v>
-      </c>
-      <c r="B56" t="s">
-        <v>25</v>
+      <c r="A56" s="15">
+        <v>44378</v>
+      </c>
+      <c r="B56" s="16">
+        <v>2021.07</v>
       </c>
       <c r="C56" s="8">
         <v>3</v>
@@ -7018,11 +6970,11 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>2021</v>
-      </c>
-      <c r="B57" t="s">
-        <v>26</v>
+      <c r="A57" s="15">
+        <v>44409</v>
+      </c>
+      <c r="B57" s="16">
+        <v>2021.08</v>
       </c>
       <c r="C57" s="8">
         <v>2.5</v>
@@ -7065,11 +7017,11 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>2021</v>
-      </c>
-      <c r="B58" t="s">
-        <v>27</v>
+      <c r="A58" s="15">
+        <v>44440</v>
+      </c>
+      <c r="B58" s="16">
+        <v>2021.09</v>
       </c>
       <c r="C58" s="8">
         <v>3.5</v>
@@ -7112,11 +7064,11 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>2021</v>
-      </c>
-      <c r="B59" t="s">
-        <v>28</v>
+      <c r="A59" s="15">
+        <v>44470</v>
+      </c>
+      <c r="B59" s="16">
+        <v>2021.1</v>
       </c>
       <c r="C59" s="8">
         <v>3.5</v>
@@ -7159,11 +7111,11 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>2021</v>
-      </c>
-      <c r="B60" t="s">
-        <v>29</v>
+      <c r="A60" s="15">
+        <v>44501</v>
+      </c>
+      <c r="B60" s="16">
+        <v>2021.11</v>
       </c>
       <c r="C60" s="8">
         <v>2.5</v>
@@ -7206,11 +7158,11 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>2021</v>
-      </c>
-      <c r="B61" t="s">
-        <v>18</v>
+      <c r="A61" s="15">
+        <v>44531</v>
+      </c>
+      <c r="B61" s="16">
+        <v>2021.12</v>
       </c>
       <c r="C61" s="8">
         <v>3.8</v>
@@ -7253,11 +7205,11 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>2022</v>
-      </c>
-      <c r="B62" t="s">
-        <v>19</v>
+      <c r="A62" s="15">
+        <v>44562</v>
+      </c>
+      <c r="B62" s="16">
+        <v>2022.01</v>
       </c>
       <c r="C62" s="8">
         <v>3.9</v>
@@ -7313,13 +7265,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540A8D9A-B90C-40B4-9A89-D6F698AEC532}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.90625" style="10"/>
+    <col min="1" max="1" width="10.90625" style="10"/>
+    <col min="2" max="2" width="10.90625" style="18"/>
     <col min="3" max="3" width="18.54296875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.90625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="10" bestFit="1" customWidth="1"/>
@@ -7337,57 +7290,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2017</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+      <c r="A2" s="15">
+        <v>43070</v>
+      </c>
+      <c r="B2" s="16">
+        <v>2017.12</v>
       </c>
       <c r="C2" s="13">
         <v>24.8</v>
@@ -7430,11 +7383,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2018</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
+      <c r="A3" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2018.01</v>
       </c>
       <c r="C3" s="13">
         <v>25</v>
@@ -7477,11 +7430,11 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2018</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="A4" s="15">
+        <v>43132</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2018.02</v>
       </c>
       <c r="C4" s="13">
         <v>25.4</v>
@@ -7524,11 +7477,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2018</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+      <c r="A5" s="15">
+        <v>43160</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2018.03</v>
       </c>
       <c r="C5" s="13">
         <v>25.4</v>
@@ -7571,11 +7524,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2018</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
+      <c r="A6" s="15">
+        <v>43191</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2018.04</v>
       </c>
       <c r="C6" s="13">
         <v>25.5</v>
@@ -7618,11 +7571,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2018</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
+      <c r="A7" s="15">
+        <v>43221</v>
+      </c>
+      <c r="B7" s="16">
+        <v>2018.05</v>
       </c>
       <c r="C7" s="13">
         <v>26.3</v>
@@ -7665,11 +7618,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
+      <c r="A8" s="15">
+        <v>43252</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2018.06</v>
       </c>
       <c r="C8" s="13">
         <v>29.5</v>
@@ -7712,11 +7665,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2018</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
+      <c r="A9" s="15">
+        <v>43282</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2018.07</v>
       </c>
       <c r="C9" s="13">
         <v>31.2</v>
@@ -7759,11 +7712,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
+      <c r="A10" s="15">
+        <v>43313</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2018.08</v>
       </c>
       <c r="C10" s="13">
         <v>34.4</v>
@@ -7806,11 +7759,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2018</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
+      <c r="A11" s="15">
+        <v>43344</v>
+      </c>
+      <c r="B11" s="16">
+        <v>2018.09</v>
       </c>
       <c r="C11" s="13">
         <v>40.5</v>
@@ -7853,11 +7806,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2018</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
+      <c r="A12" s="15">
+        <v>43374</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2018.1</v>
       </c>
       <c r="C12" s="13">
         <v>45.9</v>
@@ -7900,11 +7853,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2018</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
+      <c r="A13" s="15">
+        <v>43405</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2018.11</v>
       </c>
       <c r="C13" s="13">
         <v>48.5</v>
@@ -7947,11 +7900,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2018</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
+      <c r="A14" s="15">
+        <v>43435</v>
+      </c>
+      <c r="B14" s="16">
+        <v>2018.12</v>
       </c>
       <c r="C14" s="13">
         <v>47.6</v>
@@ -7994,11 +7947,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2019</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
+      <c r="A15" s="15">
+        <v>43466</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2019.01</v>
       </c>
       <c r="C15" s="13">
         <v>49.3</v>
@@ -8041,11 +7994,11 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2019</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
+      <c r="A16" s="15">
+        <v>43497</v>
+      </c>
+      <c r="B16" s="16">
+        <v>2019.02</v>
       </c>
       <c r="C16" s="13">
         <v>51.3</v>
@@ -8088,11 +8041,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2019</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
+      <c r="A17" s="15">
+        <v>43525</v>
+      </c>
+      <c r="B17" s="16">
+        <v>2019.03</v>
       </c>
       <c r="C17" s="13">
         <v>54.7</v>
@@ -8135,11 +8088,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2019</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
+      <c r="A18" s="15">
+        <v>43556</v>
+      </c>
+      <c r="B18" s="16">
+        <v>2019.04</v>
       </c>
       <c r="C18" s="13">
         <v>55.8</v>
@@ -8182,11 +8135,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2019</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
+      <c r="A19" s="15">
+        <v>43586</v>
+      </c>
+      <c r="B19" s="16">
+        <v>2019.05</v>
       </c>
       <c r="C19" s="13">
         <v>57.3</v>
@@ -8229,11 +8182,11 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2019</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
+      <c r="A20" s="15">
+        <v>43617</v>
+      </c>
+      <c r="B20" s="16">
+        <v>2019.06</v>
       </c>
       <c r="C20" s="13">
         <v>55.8</v>
@@ -8276,11 +8229,11 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2019</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
+      <c r="A21" s="15">
+        <v>43647</v>
+      </c>
+      <c r="B21" s="16">
+        <v>2019.07</v>
       </c>
       <c r="C21" s="13">
         <v>54.4</v>
@@ -8323,11 +8276,11 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
+      <c r="A22" s="15">
+        <v>43678</v>
+      </c>
+      <c r="B22" s="16">
+        <v>2019.08</v>
       </c>
       <c r="C22" s="13">
         <v>54.5</v>
@@ -8370,11 +8323,11 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
+      <c r="A23" s="15">
+        <v>43709</v>
+      </c>
+      <c r="B23" s="16">
+        <v>2019.09</v>
       </c>
       <c r="C23" s="13">
         <v>53.5</v>
@@ -8417,11 +8370,11 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2019</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
+      <c r="A24" s="15">
+        <v>43739</v>
+      </c>
+      <c r="B24" s="16">
+        <v>2019.1</v>
       </c>
       <c r="C24" s="13">
         <v>50.5</v>
@@ -8464,11 +8417,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2019</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
+      <c r="A25" s="15">
+        <v>43770</v>
+      </c>
+      <c r="B25" s="16">
+        <v>2019.11</v>
       </c>
       <c r="C25" s="13">
         <v>52.1</v>
@@ -8511,11 +8464,11 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2019</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
+      <c r="A26" s="15">
+        <v>43800</v>
+      </c>
+      <c r="B26" s="16">
+        <v>2019.12</v>
       </c>
       <c r="C26" s="13">
         <v>53.8</v>
@@ -8558,11 +8511,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>2020</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
+      <c r="A27" s="15">
+        <v>43831</v>
+      </c>
+      <c r="B27" s="16">
+        <v>2020.01</v>
       </c>
       <c r="C27" s="13">
         <v>52.9</v>
@@ -8605,11 +8558,11 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>2020</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
+      <c r="A28" s="15">
+        <v>43862</v>
+      </c>
+      <c r="B28" s="16">
+        <v>2020.02</v>
       </c>
       <c r="C28" s="13">
         <v>50.3</v>
@@ -8652,11 +8605,11 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>2020</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
+      <c r="A29" s="15">
+        <v>43891</v>
+      </c>
+      <c r="B29" s="16">
+        <v>2020.03</v>
       </c>
       <c r="C29" s="13">
         <v>48.4</v>
@@ -8699,11 +8652,11 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>2020</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
+      <c r="A30" s="15">
+        <v>43922</v>
+      </c>
+      <c r="B30" s="16">
+        <v>2020.04</v>
       </c>
       <c r="C30" s="13">
         <v>45.6</v>
@@ -8746,11 +8699,11 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>2020</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
+      <c r="A31" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B31" s="16">
+        <v>2020.05</v>
       </c>
       <c r="C31" s="13">
         <v>43.4</v>
@@ -8793,11 +8746,11 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>2020</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
+      <c r="A32" s="15">
+        <v>43983</v>
+      </c>
+      <c r="B32" s="16">
+        <v>2020.06</v>
       </c>
       <c r="C32" s="13">
         <v>42.8</v>
@@ -8840,11 +8793,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>2020</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
+      <c r="A33" s="15">
+        <v>44013</v>
+      </c>
+      <c r="B33" s="16">
+        <v>2020.07</v>
       </c>
       <c r="C33" s="13">
         <v>42.4</v>
@@ -8887,11 +8840,11 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
+      <c r="A34" s="15">
+        <v>44044</v>
+      </c>
+      <c r="B34" s="16">
+        <v>2020.08</v>
       </c>
       <c r="C34" s="13">
         <v>40.700000000000003</v>
@@ -8934,11 +8887,11 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>2020</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
+      <c r="A35" s="15">
+        <v>44075</v>
+      </c>
+      <c r="B35" s="16">
+        <v>2020.09</v>
       </c>
       <c r="C35" s="13">
         <v>36.6</v>
@@ -8981,11 +8934,11 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>2020</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
+      <c r="A36" s="15">
+        <v>44105</v>
+      </c>
+      <c r="B36" s="16">
+        <v>2020.1</v>
       </c>
       <c r="C36" s="13">
         <v>37.200000000000003</v>
@@ -9028,11 +8981,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>2020</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
+      <c r="A37" s="15">
+        <v>44136</v>
+      </c>
+      <c r="B37" s="16">
+        <v>2020.11</v>
       </c>
       <c r="C37" s="13">
         <v>35.799999999999997</v>
@@ -9075,11 +9028,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>2020</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
+      <c r="A38" s="15">
+        <v>44166</v>
+      </c>
+      <c r="B38" s="16">
+        <v>2020.12</v>
       </c>
       <c r="C38" s="13">
         <v>36.1</v>
@@ -9122,11 +9075,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>2021</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
+      <c r="A39" s="15">
+        <v>44197</v>
+      </c>
+      <c r="B39" s="16">
+        <v>2021.01</v>
       </c>
       <c r="C39" s="13">
         <v>38.5</v>
@@ -9169,11 +9122,11 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>2021</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
+      <c r="A40" s="15">
+        <v>44228</v>
+      </c>
+      <c r="B40" s="16">
+        <v>2021.02</v>
       </c>
       <c r="C40" s="13">
         <v>40.700000000000003</v>
@@ -9216,11 +9169,11 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>2021</v>
-      </c>
-      <c r="B41" t="s">
-        <v>21</v>
+      <c r="A41" s="15">
+        <v>44256</v>
+      </c>
+      <c r="B41" s="16">
+        <v>2021.03</v>
       </c>
       <c r="C41" s="13">
         <v>42.6</v>
@@ -9263,11 +9216,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>2021</v>
-      </c>
-      <c r="B42" t="s">
-        <v>22</v>
+      <c r="A42" s="15">
+        <v>44287</v>
+      </c>
+      <c r="B42" s="16">
+        <v>2021.04</v>
       </c>
       <c r="C42" s="13">
         <v>46.3</v>
@@ -9310,11 +9263,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>2021</v>
-      </c>
-      <c r="B43" t="s">
-        <v>23</v>
+      <c r="A43" s="15">
+        <v>44317</v>
+      </c>
+      <c r="B43" s="16">
+        <v>2021.05</v>
       </c>
       <c r="C43" s="14">
         <v>48.8</v>
@@ -9357,11 +9310,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>2021</v>
-      </c>
-      <c r="B44" t="s">
-        <v>24</v>
+      <c r="A44" s="15">
+        <v>44348</v>
+      </c>
+      <c r="B44" s="16">
+        <v>2021.06</v>
       </c>
       <c r="C44" s="14">
         <v>50.2</v>
@@ -9404,11 +9357,11 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>2021</v>
-      </c>
-      <c r="B45" t="s">
-        <v>25</v>
+      <c r="A45" s="15">
+        <v>44378</v>
+      </c>
+      <c r="B45" s="16">
+        <v>2021.07</v>
       </c>
       <c r="C45" s="14">
         <v>51.8</v>
@@ -9451,11 +9404,11 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2021</v>
-      </c>
-      <c r="B46" t="s">
-        <v>26</v>
+      <c r="A46" s="15">
+        <v>44409</v>
+      </c>
+      <c r="B46" s="16">
+        <v>2021.08</v>
       </c>
       <c r="C46" s="14">
         <v>51.4</v>
@@ -9498,11 +9451,11 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>2021</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
+      <c r="A47" s="15">
+        <v>44440</v>
+      </c>
+      <c r="B47" s="16">
+        <v>2021.09</v>
       </c>
       <c r="C47" s="14">
         <v>52.5</v>
@@ -9545,11 +9498,11 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>2021</v>
-      </c>
-      <c r="B48" t="s">
-        <v>28</v>
+      <c r="A48" s="15">
+        <v>44470</v>
+      </c>
+      <c r="B48" s="16">
+        <v>2021.1</v>
       </c>
       <c r="C48" s="14">
         <v>52.1</v>
@@ -9592,11 +9545,11 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>2021</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
+      <c r="A49" s="15">
+        <v>44501</v>
+      </c>
+      <c r="B49" s="16">
+        <v>2021.11</v>
       </c>
       <c r="C49" s="14">
         <v>51.2</v>
@@ -9639,11 +9592,11 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>2021</v>
-      </c>
-      <c r="B50" t="s">
-        <v>18</v>
+      <c r="A50" s="15">
+        <v>44531</v>
+      </c>
+      <c r="B50" s="16">
+        <v>2021.12</v>
       </c>
       <c r="C50" s="14">
         <v>50.9</v>
@@ -9686,11 +9639,11 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>2022</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
+      <c r="A51" s="15">
+        <v>44562</v>
+      </c>
+      <c r="B51" s="16">
+        <v>2022.01</v>
       </c>
       <c r="C51" s="14">
         <v>50.7</v>
